--- a/src/test/java/resources/excelfile.xlsx
+++ b/src/test/java/resources/excelfile.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\IdeaProjects\CWJUnitProjectDefault\src\test\java\tests\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\umitkalemkus\IdeaProjects\CWJunitSelenium\src\test\java\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8F3BE9-67B0-424E-A2ED-6B425CF484F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9194C264-9638-465B-B8B2-CB3D373864D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9390" yWindow="1275" windowWidth="17040" windowHeight="10410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sayfa2" sheetId="2" r:id="rId2"/>
+    <sheet name="Umit" sheetId="1" r:id="rId1"/>
+    <sheet name="Kalem" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>COUNTRY</t>
   </si>
@@ -77,12 +77,6 @@
   </si>
   <si>
     <t>Çin</t>
-  </si>
-  <si>
-    <t>POPULATION</t>
-  </si>
-  <si>
-    <t>data</t>
   </si>
 </sst>
 </file>
@@ -420,62 +414,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3">
         <v>16377742</v>
       </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="3">
         <v>9569901</v>
       </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3">
         <v>9158960</v>
       </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -483,7 +465,7 @@
         <v>9093507</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -491,7 +473,7 @@
         <v>8460415</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -499,7 +481,7 @@
         <v>7682300</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -507,7 +489,7 @@
         <v>2973193</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -515,7 +497,7 @@
         <v>2736690</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -523,7 +505,7 @@
         <v>2699700</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -531,7 +513,7 @@
         <v>2381741</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -539,7 +521,7 @@
         <v>2381741</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -547,7 +529,7 @@
         <v>1943945</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -555,7 +537,7 @@
         <v>1811569</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -563,7 +545,7 @@
         <v>1765050</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -581,17 +563,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824F462C-C901-46F6-B837-362B79D2B39E}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,7 +581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -607,7 +589,7 @@
         <v>16377742</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -615,7 +597,7 @@
         <v>9569901</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -623,7 +605,7 @@
         <v>9158960</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -631,7 +613,7 @@
         <v>9093507</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -639,7 +621,7 @@
         <v>8460415</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -647,7 +629,7 @@
         <v>7682300</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -655,7 +637,7 @@
         <v>2973193</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -663,7 +645,7 @@
         <v>2736690</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -671,7 +653,7 @@
         <v>2699700</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -679,7 +661,7 @@
         <v>2381741</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -687,7 +669,7 @@
         <v>2381741</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>

--- a/src/test/java/resources/excelfile.xlsx
+++ b/src/test/java/resources/excelfile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\umitkalemkus\IdeaProjects\CWJunitSelenium\src\test\java\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9194C264-9638-465B-B8B2-CB3D373864D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E49146-A198-4C78-8C1A-00778F1C6B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>COUNTRY</t>
   </si>
@@ -77,6 +77,18 @@
   </si>
   <si>
     <t>Çin</t>
+  </si>
+  <si>
+    <t>POPULATION</t>
+  </si>
+  <si>
+    <t>Rusyanin populasyonu</t>
+  </si>
+  <si>
+    <t>Cin in populasyonu</t>
+  </si>
+  <si>
+    <t>Abd nin populasyonu</t>
   </si>
 </sst>
 </file>
@@ -561,51 +573,65 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824F462C-C901-46F6-B837-362B79D2B39E}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="21.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3">
         <v>16377742</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="3">
         <v>9569901</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3">
         <v>9158960</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -613,7 +639,7 @@
         <v>9093507</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -621,7 +647,7 @@
         <v>8460415</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -629,7 +655,7 @@
         <v>7682300</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -637,7 +663,7 @@
         <v>2973193</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -645,7 +671,7 @@
         <v>2736690</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -653,7 +679,7 @@
         <v>2699700</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -661,7 +687,7 @@
         <v>2381741</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -669,7 +695,7 @@
         <v>2381741</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
